--- a/results/data/FW2.1.xlsx
+++ b/results/data/FW2.1.xlsx
@@ -410,7 +410,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>401660.7</v>
+        <v>401733.3999999997</v>
       </c>
     </row>
   </sheetData>

--- a/results/data/FW2.1.xlsx
+++ b/results/data/FW2.1.xlsx
@@ -402,7 +402,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>98.185</v>
+        <v>98.08</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -410,7 +410,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>401733.3999999997</v>
+        <v>400803.4519999997</v>
       </c>
     </row>
   </sheetData>
